--- a/data/trans_camb/P15B_tráfico-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P15B_tráfico-Estudios-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-5.155283364113128</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-2.434474493802555</v>
+        <v>-2.434474493802552</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-25.6222874842667</v>
+        <v>-27.15799857051203</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-32.16151881654888</v>
+        <v>-34.00591270089346</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-25.43844415499476</v>
+        <v>-25.81191564616568</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-12.69354289107867</v>
+        <v>-14.67360766234921</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-14.08434277293007</v>
+        <v>-15.23326716442148</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-14.66174855861834</v>
+        <v>-12.35375921668106</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-12.43152546051943</v>
+        <v>-11.87608868746029</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-16.28631189886856</v>
+        <v>-17.65284279980857</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-14.58408114447583</v>
+        <v>-14.20130747342997</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.41151335230001</v>
+        <v>16.715662188297</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.421322716483772</v>
+        <v>7.081455221283808</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18.88134795696271</v>
+        <v>16.99577434423983</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.982841007736664</v>
+        <v>8.391438306808727</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.816567725744755</v>
+        <v>8.368485379035109</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.953431804378124</v>
+        <v>7.694588463759314</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.899718666099877</v>
+        <v>8.726812579756919</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.354413573168673</v>
+        <v>4.499039742983284</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>6.631472763022423</v>
+        <v>6.730233128868361</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.3059770052662181</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.1444912262623692</v>
+        <v>-0.144491226262369</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.590764042898856</v>
+        <v>-0.6194229816733563</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7604834061115614</v>
+        <v>-0.7970548489391653</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6387482363223191</v>
+        <v>-0.6651160116082246</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6950528492121343</v>
+        <v>-0.7277667515503775</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.798054563373274</v>
+        <v>-0.8106276111750597</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6824187994748755</v>
+        <v>-0.6745668494520622</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4907980594504646</v>
+        <v>-0.4917544001297208</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6904360335044442</v>
+        <v>-0.6917335690975432</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.5836662367707498</v>
+        <v>-0.5672246808800694</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.341904587846913</v>
+        <v>1.235677726049911</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6888735429750107</v>
+        <v>0.5455752770969771</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.358081238726791</v>
+        <v>1.18145022155812</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.720423492090305</v>
+        <v>1.976401732077094</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.03133082037101</v>
+        <v>2.731371609720827</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.60503072863849</v>
+        <v>1.794294596275304</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9600199556516735</v>
+        <v>0.9615711028924405</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4195862483410112</v>
+        <v>0.4604247722413232</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.6208955763341651</v>
+        <v>0.7068132677569088</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-7.972494831043708</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-6.866889207700588</v>
+        <v>-6.866889207700594</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-21.31859525643076</v>
+        <v>-20.460014982035</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-25.07810267490084</v>
+        <v>-23.61192648780119</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-23.33707295692484</v>
+        <v>-23.87716118463482</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-25.70891419281701</v>
+        <v>-25.40703814892822</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-24.25604412185411</v>
+        <v>-25.14080840925266</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-20.64599161991672</v>
+        <v>-20.46804961342929</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-18.42233502311353</v>
+        <v>-18.72868500901533</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-19.97380743365429</v>
+        <v>-18.52433672584616</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-19.05131105602183</v>
+        <v>-18.84969311334322</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.097254205032713</v>
+        <v>4.715886453218745</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.833373310082928</v>
+        <v>3.58011750478713</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.649517089071778</v>
+        <v>1.664407553331379</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.72272598117104</v>
+        <v>10.34092708489923</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>12.21500084225806</v>
+        <v>13.03351694823361</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>15.58136553825065</v>
+        <v>15.41058928806014</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.57511387373488</v>
+        <v>1.956805676283905</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.241201632743778</v>
+        <v>2.149979059512024</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.140749260203243</v>
+        <v>3.388610710746976</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.2809260216242041</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.2988955270919295</v>
+        <v>-0.2988955270919293</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.2059103279483951</v>
@@ -983,7 +983,7 @@
         <v>-0.2406746553907024</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.2072984967308048</v>
+        <v>-0.207298496730805</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4893817721792534</v>
+        <v>-0.4755400367018511</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5643723334784128</v>
+        <v>-0.5628010729347703</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.563538721085834</v>
+        <v>-0.571644121135774</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5745960675359516</v>
+        <v>-0.5450065323821077</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.545934651827393</v>
+        <v>-0.5538998175522896</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4793357067658962</v>
+        <v>-0.4832724698629924</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4461890679596046</v>
+        <v>-0.4670874179517561</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4755600426597283</v>
+        <v>-0.4676291717377625</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4730576533424474</v>
+        <v>-0.45609268106456</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.169802211012882</v>
+        <v>0.1861674426297529</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1230165307787972</v>
+        <v>0.14467467832607</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1633733053476979</v>
+        <v>0.07881936714154905</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6210008739343457</v>
+        <v>0.5924700515134326</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6950117423877938</v>
+        <v>0.8445565278518723</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8820672156093694</v>
+        <v>0.9054119951906668</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1047666623275005</v>
+        <v>0.08884964293978495</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.09121784732396371</v>
+        <v>0.08701342795028293</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1268255039824112</v>
+        <v>0.1367659627023087</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-15.49062690173913</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>3.790834010790084</v>
+        <v>3.790834010790078</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-38.62757537176797</v>
+        <v>-38.53301652274846</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-41.09420649284464</v>
+        <v>-38.65246557391873</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-20.42617725153949</v>
+        <v>-23.52704771853987</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-32.27843268512681</v>
+        <v>-31.67516594793454</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-48.6462945365676</v>
+        <v>-47.43365923591492</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-32.64055655929119</v>
+        <v>-34.48967174336278</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-25.9721271021515</v>
+        <v>-24.5969456346059</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-39.38342957645508</v>
+        <v>-34.8570449062889</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-17.79178515964512</v>
+        <v>-17.13747394122584</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.51006582324184</v>
+        <v>19.09864848014722</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.76805657753157</v>
+        <v>15.96005373366527</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>38.08560488444336</v>
+        <v>35.01065569187202</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>32.51197321371981</v>
+        <v>29.70675443758896</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.34861714707551</v>
+        <v>9.249731400802627</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>21.47266333412393</v>
+        <v>20.11377081473516</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>19.28795231423069</v>
+        <v>17.21795873701315</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.049634217421462</v>
+        <v>4.522323516978577</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>23.9137174195809</v>
+        <v>26.388648715957</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.5086135371187206</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.1244668474096053</v>
+        <v>0.1244668474096051</v>
       </c>
     </row>
     <row r="20">
@@ -1208,29 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8178454318696116</v>
+        <v>-0.7567990366140281</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8363592414585488</v>
+        <v>-0.8281905132588506</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4994640572817545</v>
+        <v>-0.5284128775453183</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6447431344389869</v>
-      </c>
-      <c r="G20" s="6" t="inlineStr"/>
+        <v>-0.6582914314775847</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.9336139439610831</v>
+      </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6303101258487828</v>
+        <v>-0.6338365592524119</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6037026229059452</v>
+        <v>-0.5949934198192068</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.822539930096016</v>
+        <v>-0.8071340508651689</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.415294609129767</v>
+        <v>-0.397165697405325</v>
       </c>
     </row>
     <row r="21">
@@ -1241,29 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.416220643094412</v>
+        <v>1.81344891802402</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.630713516800551</v>
+        <v>1.97403386533783</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.261720224520842</v>
+        <v>2.394062721825018</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>3.30089959761778</v>
-      </c>
-      <c r="G21" s="6" t="inlineStr"/>
+        <v>3.305700911576832</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>1.251872154721505</v>
+      </c>
       <c r="H21" s="6" t="n">
-        <v>2.27689837366922</v>
+        <v>1.739036802736266</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.204581355057061</v>
+        <v>1.030824582334224</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3526932667164501</v>
+        <v>0.4141940679707893</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.435453695827151</v>
+        <v>1.541215155075219</v>
       </c>
     </row>
     <row r="22">
@@ -1302,7 +1306,7 @@
         <v>-8.043733654070465</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-3.017035734211612</v>
+        <v>-3.017035734211615</v>
       </c>
     </row>
     <row r="23">
@@ -1313,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-17.2015787191682</v>
+        <v>-16.73900067125242</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-20.67020353665776</v>
+        <v>-22.52883612353019</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-15.91321578327615</v>
+        <v>-17.92905433145871</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-11.48498754257741</v>
+        <v>-13.26946777755815</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-13.97058947202486</v>
+        <v>-13.95296435221672</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-9.768103705099064</v>
+        <v>-9.483007250915804</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-12.47514734042979</v>
+        <v>-12.6618719960438</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-15.32491868146221</v>
+        <v>-15.86945254917738</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-10.9318951975372</v>
+        <v>-10.26812933131191</v>
       </c>
     </row>
     <row r="24">
@@ -1348,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.867374508629748</v>
+        <v>3.48361386782604</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.04526989722051888</v>
+        <v>-1.445339246649496</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.349983965461095</v>
+        <v>5.197138529593668</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.233641675544961</v>
+        <v>7.631776488898745</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.675304977069319</v>
+        <v>6.491878661178847</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.67451794495982</v>
+        <v>10.20443502520801</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.224256043629616</v>
+        <v>2.214973530431418</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.1714631082706646</v>
+        <v>-1.175781796049728</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.307074979954921</v>
+        <v>4.642068361256606</v>
       </c>
     </row>
     <row r="25">
@@ -1407,7 +1411,7 @@
         <v>-0.2933758638371513</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.1100391314304614</v>
+        <v>-0.1100391314304615</v>
       </c>
     </row>
     <row r="26">
@@ -1418,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4346659259622458</v>
+        <v>-0.4364204026841447</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5354530176361112</v>
+        <v>-0.563781377388644</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.42401791684023</v>
+        <v>-0.4531581732744925</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4106160725828195</v>
+        <v>-0.4509102108206017</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5100579272102121</v>
+        <v>-0.50380851612146</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3515236196730114</v>
+        <v>-0.3349022581846396</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3764108705539889</v>
+        <v>-0.3883055994537377</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4744800768205301</v>
+        <v>-0.4851803807385054</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3369620715577721</v>
+        <v>-0.3176017119972646</v>
       </c>
     </row>
     <row r="27">
@@ -1453,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.131441663576429</v>
+        <v>0.1271710526184337</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.000966034470454336</v>
+        <v>-0.04324623655925881</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2378054341219017</v>
+        <v>0.2239295582107654</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6279014939689762</v>
+        <v>0.5631998083615526</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.425598624158358</v>
+        <v>0.4722838812244088</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7291851348255958</v>
+        <v>0.6883547685282706</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.05250954342341461</v>
+        <v>0.09121154143157316</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.01293026773013638</v>
+        <v>-0.05288901709221639</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1876689772603673</v>
+        <v>0.2072416621181557</v>
       </c>
     </row>
     <row r="28">
